--- a/excel/AVLIST_1.xlsx
+++ b/excel/AVLIST_1.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ONSD—783</t>
+          <t>ONSD-783</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ONSD—783 そら—蒼井そら写真集</t>
+          <t>ONSD-783 そら—蒼井そら写真集</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>START-240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-560S1PRECIOUSGIRLS2024</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>(FC2-PPV-2711719)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -541,12 +541,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>ZOCM-052</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MIDA-039 Karen Kaede 和 Arina Arata。最强二人组。女神后宫：世纪最美姐姐们-淫荡特辑</t>
+          <t>ZOCM-052 お馬鹿なぴえん系地雷娘ほど…ド痴女 ネットで噂のバスト89cmHcup美乳美少女と変態性交 星川まい</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MXGS-1281</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEYD-988 *高规格新人大谷双叶（33岁）AV出演。体液四溢劲爆性爱特辑！</t>
+          <t>MXGS-1281 拘束絶頂 ～身動きが取れない状況で痙攣イキするえっちなオマ○コ 星川まい</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>FUNK-010</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SONE-607 [中文字幕] スタイルも愛嬌も抜群な美少女のニコニコ笑顔に精液ぶっかける背徳大量顔射オナサポ 乃坂ひより</t>
+          <t>FUNK-010 街中リモバイ！！「10分耐えられたら謝礼あげます」とお願いしたら恥ずかしい散歩に興奮しちゃってパン染みダラダラ垂らして発情！我慢できずに即チン求めて… Nia 星川まい</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MEYD-995*</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HMN-678 *老师，我可以去您家吗？ 我以前的一个学生在我家闲逛</t>
+          <t>MEYD-995 *我的妻子对公鸡不满意，所以我让我的大侄子来诱惑她！</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>DVDMS-918</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PRED-749 *我想彻底羞辱这位优雅的女新闻主播，让她一次又一次达到高潮！</t>
+          <t>DVDMS-918 無防備なデカ尻ギャルに即ハメ！性欲モンスターになった痴女ギャルが翌日勝手に押しかけてきて満足するまで何度も中出しさせられた… 2 星川まい</t>
         </is>
       </c>
     </row>
@@ -641,12 +641,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>ICHK-029</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>STARS-993 [中文字幕] 盆休みの帰省中、近所のよつ葉と久しぶりの再会。うだるような暑い季節に成長してどちゃクソ可愛くなっていた幼馴染と三日三晩ハメまくった。 小湊よつ葉</t>
+          <t>ICHK-029 いちゃはこっ！ バニーコス素人美女イチャラブ ガチ中出しド変態美女・まいちゃん&amp;amp;ルンルン中出しデレデレ美女ひすいちゃん 星川まい 松宮ひすい</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>IPZZ-508</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[4KUHD+HD] STARS-993 盆休みの帰省中、近所のよつ葉と久しぶりの再会。うだるような暑い季節に成長してどちゃクソ可愛くなっていた幼馴染と三日三晩ハメまくった。 小湊よつ葉</t>
+          <t>IPZZ-508 [中文字幕] 超問題作解禁！！ 家庭訪問先のゴミ部屋親父に媚薬キメセクかまされイカされ続けた潔癖クソ真面目女教師 楓カレン</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MEYD-988*</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MUDR-317 *北山悠首次肛交发行 北山憂</t>
+          <t>MEYD-988 *高规格新人大谷双叶（33岁）AV出演。体液四溢劲爆性爱特辑！</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MIDA-039KarenKaede</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HBAD-705 *我的大胸、美丽、善良的姐姐是一个顺从的受虐狂，对许多男人都唯命是从</t>
+          <t>MIDA-039 Karen Kaede 和 Arina Arata。最强二人组。女神后宫：世纪最美姐姐们-淫荡特辑</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-607</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HBAD-704 *以性感的M脸和丰满的H杯身材吸引男性的淫荡巨乳女</t>
+          <t>SONE-607 [中文字幕] スタイルも愛嬌も抜群な美少女のニコニコ笑顔に精液ぶっかける背徳大量顔射オナサポ 乃坂ひより</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>HMN-678*</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SONE-632 [中文字幕] 潮狂いオーガズム ハメ潮?失禁 尽き果てるまでイカセ飛ぶ！ 金松季歩</t>
+          <t>HMN-678 *老师，我可以去您家吗？ 我以前的一个学生在我家闲逛</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>PRED-749*</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>IPZZ-508 [中文字幕] 超問題作解禁！！ 家庭訪問先のゴミ部屋親父に媚薬キメセクかまされイカされ続けた潔癖クソ真面目女教師 楓カレン</t>
+          <t>PRED-749 *我想彻底羞辱这位优雅的女新闻主播，让她一次又一次达到高潮！</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>STARS-993</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HMN-665 *  性用品店经理的性感法式接吻而怀孕，并进行了一场汗流浃背、充满欲望的中出SEX 宮戶里保</t>
+          <t>STARS-993 [中文字幕] 盆休みの帰省中、近所のよつ葉と久しぶりの再会。うだるような暑い季節に成長してどちゃクソ可愛くなっていた幼馴染と三日三晩ハメまくった。 小湊よつ葉</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>STARS-993</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VEC-689 *同学聚会通奸SEX十多年来第一次见到我的初恋女朋友</t>
+          <t>[4KUHD+HD] STARS-993 盆休みの帰省中、近所のよつ葉と久しぶりの再会。うだるような暑い季節に成長してどちゃクソ可愛くなっていた幼馴染と三日三晩ハメまくった。 小湊よつ葉</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MUDR-317*</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MIDA-086 *我被不喜欢的老板命令成一名淫荡的泳装模特……夜间泳池娱乐场所的集体性骚扰sex派对</t>
+          <t>MUDR-317 *北山悠首次肛交发行 北山憂</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>HBAD-705*</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SONE-628 [中文字幕] 僕が彼女とSEXしないよういつも朝勃ちチ●ポを狙って欲情防止ヌキしてくるやきもち焼きの射精せたがり妹 川越にこ</t>
+          <t>HBAD-705 *我的大胸、美丽、善良的姐姐是一个顺从的受虐狂，对许多男人都唯命是从</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>HBAD-704*</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>IPZZ-505 [中文字幕] 絶対に逃がさない連れ回しレ×プ！1泊2日地獄デート 誘拐してまでヤリたい女 出張と偽り私を軟禁し犯し続けた2日間 さくらわかな</t>
+          <t>HBAD-704 *以性感的M脸和丰满的H杯身材吸引男性的淫荡巨乳女</t>
         </is>
       </c>
     </row>
@@ -881,12 +881,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-632</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>IPZZ-520 [中文字幕]「初泡姫チャレンジします」 即尺即ハメ！！天然美少女のイチャイチャ御奉仕ソープ 愛才りあ</t>
+          <t>SONE-632 [中文字幕] 潮狂いオーガズム ハメ潮?失禁 尽き果てるまでイカセ飛ぶ！ 金松季歩</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>HMN-665*</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>IPZZ-519 [中文字幕] あなたの脳内を快楽で埋め尽くす 佐々木さきプレミアムオナニーサポート</t>
+          <t>HMN-665 *  性用品店经理的性感法式接吻而怀孕，并进行了一场汗流浃背、充满欲望的中出SEX 宮戶里保</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>VEC-689*</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MEYD-907 痙攣絶頂∞回！！！ 100cmHcup人妻と、朝が来てもただひたすらにホテルで不倫ヤリまくり3本番 宇佐美すい</t>
+          <t>VEC-689 *同学聚会通奸SEX十多年来第一次见到我的初恋女朋友</t>
         </is>
       </c>
     </row>
@@ -941,12 +941,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MIDA-086*</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MEYD-963 [中文字幕] 義父と地方出張 素泊まり相部屋NTR 浜辺栞帆</t>
+          <t>MIDA-086 *我被不喜欢的老板命令成一名淫荡的泳装模特……夜间泳池娱乐场所的集体性骚扰sex派对</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-628</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MEYD-975 [中文字幕]「1分間だけ挿れていいですか？」 相部屋になった部下にムリヤリ挿入されて…1分未満で潮吹き絶頂してしまった私。 澪真央</t>
+          <t>SONE-628 [中文字幕] 僕が彼女とSEXしないよういつも朝勃ちチ●ポを狙って欲情防止ヌキしてくるやきもち焼きの射精せたがり妹 川越にこ</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>IPZZ-505</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>IPX-998 先生…今日、泊まっていい？ 実習期間中、ホテル暮らしのボクは生徒に迫られ、まさかの相部屋に…彼女は困惑するボクを誘惑し朝が来るまでひたすら痴女り続けた。 相沢みなみ</t>
+          <t>IPZZ-505 [中文字幕] 絶対に逃がさない連れ回しレ×プ！1泊2日地獄デート 誘拐してまでヤリたい女 出張と偽り私を軟禁し犯し続けた2日間 さくらわかな</t>
         </is>
       </c>
     </row>
@@ -1001,12 +1001,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>IPZZ-520</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SONE-642 最强最可爱！河北彩伽三、二、一......来吧！加油！”啪！我人生的巅峰肯定就是现在，这喷射的一刻！ 河北彩伽(原:河北彩花)番号作品</t>
+          <t>IPZZ-520 [中文字幕]「初泡姫チャレンジします」 即尺即ハメ！！天然美少女のイチャイチャ御奉仕ソープ 愛才りあ</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>IPZZ-519</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SONE-565  S1 20周年：AV界史上最强双打组合，全球顶级女优倾情献上极致服务S1超级后宫全套课程</t>
+          <t>IPZZ-519 [中文字幕] あなたの脳内を快楽で埋め尽くす 佐々木さきプレミアムオナニーサポート</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MEYD-907</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>MVSD-632 *我是病人，她是护士。我们在病房里反复做爱并进行内射。</t>
+          <t>MEYD-907 痙攣絶頂∞回！！！ 100cmHcup人妻と、朝が来てもただひたすらにホテルで不倫ヤリまくり3本番 宇佐美すい</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MEYD-963</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MIAB-407 *在一次学校旅行中，我被一群开朗的女孩包围着，2天1夜连续同时射精</t>
+          <t>MEYD-963 [中文字幕] 義父と地方出張 素泊まり相部屋NTR 浜辺栞帆</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1081,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MEYD-975</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PRED-744 ※总务部办公室小姐平日是朴实无华的女人，休息日则是淫荡的辣妹！</t>
+          <t>MEYD-975 [中文字幕]「1分間だけ挿れていいですか？」 相部屋になった部下にムリヤリ挿入されて…1分未満で潮吹き絶頂してしまった私。 澪真央</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>IPX-998</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PRED-750我无法停止看到她湿漉漉、透明的身体，所以我一次又一次地射在她体内</t>
+          <t>IPX-998 先生…今日、泊まっていい？ 実習期間中、ホテル暮らしのボクは生徒に迫られ、まさかの相部屋に…彼女は困惑するボクを誘惑し朝が来るまでひたすら痴女り続けた。 相沢みなみ</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-642</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>MUCD-325 *与超可爱的制服女孩一起射精并做爱直到你射满她全身的最佳方式</t>
+          <t>SONE-642 最强最可爱！河北彩伽三、二、一......来吧！加油！”啪！我人生的巅峰肯定就是现在，这喷射的一刻！ 河北彩伽(原:河北彩花)番号作品</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-565S1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>MIAB-432 [中文字幕] “我要干你，所以你会没事的，好吗？”</t>
+          <t>SONE-565  S1 20周年：AV界史上最强双打组合，全球顶级女优倾情献上极致服务S1超级后宫全套课程</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MVSD-632*</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PRED-751 *大屁股JK被学校泳装狂人盯上。被变态跟踪狂的中出标记玷污</t>
+          <t>MVSD-632 *我是病人，她是护士。我们在病房里反复做爱并进行内射。</t>
         </is>
       </c>
     </row>
@@ -1181,12 +1181,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MIAB-407*</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PRED-745 *脸？身材？情色？人格一切都是S级。一个让我发疯并让我和她生下秘密宝宝的情妇</t>
+          <t>MIAB-407 *在一次学校旅行中，我被一群开朗的女孩包围着，2天1夜连续同时射精</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>PRED-744</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>MEYD-995 *我的妻子对公鸡不满意，所以我让我的大侄子来诱惑她！</t>
+          <t>PRED-744 ※总务部办公室小姐平日是朴实无华的女人，休息日则是淫荡的辣妹！</t>
         </is>
       </c>
     </row>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>PRED-</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>BLK-647 * 现役 GAL 护士吸吮、操弄并吃掉淫荡护士黑崎花</t>
+          <t>PRED-750我无法停止看到她湿漉漉、透明的身体，所以我一次又一次地射在她体内</t>
         </is>
       </c>
     </row>
@@ -1241,12 +1241,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MUCD-325*</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>MEYD-961 [中文字幕] 新人 元女子アナウンサー真北祈24歳 数日後に結婚をする、次世代人妻エース。 真北祈</t>
+          <t>MUCD-325 *与超可爱的制服女孩一起射精并做爱直到你射满她全身的最佳方式</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MIAB-432</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PRED-753 *蛰居族独立支援：巨乳OL JULIA 以压倒性的母爱为在垃圾房手淫的淫屌少年</t>
+          <t>MIAB-432 [中文字幕] “我要干你，所以你会没事的，好吗？”</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>PRED-751*</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>MEYD-974 直到丈夫的学生考完试的那一天……已婚裸模沉迷于SEX行为 椎名心春</t>
+          <t>PRED-751 *大屁股JK被学校泳装狂人盯上。被变态跟踪狂的中出标记玷污</t>
         </is>
       </c>
     </row>
@@ -1301,12 +1301,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>PRED-745*</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ABF-208 *FETISH TOKYO 铃森玲梦 [附 40 分钟有限奖励镜头]:: 演员阵容：铃森玲梦</t>
+          <t>PRED-745 *脸？身材？情色？人格一切都是S级。一个让我发疯并让我和她生下秘密宝宝的情妇</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>BLK-647*</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>MUKC-093 *与一个顽皮的女孩独处.带他们进行角色扮演温泉之旅.</t>
+          <t>BLK-647 * 现役 GAL 护士吸吮、操弄并吃掉淫荡护士黑崎花</t>
         </is>
       </c>
     </row>
@@ -1341,12 +1341,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MEYD-961</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>MUKC-091 * 下班后我遇到了一位酒吧女招待，我们在酒吧里喝醉了三人行</t>
+          <t>MEYD-961 [中文字幕] 新人 元女子アナウンサー真北祈24歳 数日後に結婚をする、次世代人妻エース。 真北祈</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1361,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>PRED-753*</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>MIDA-087 *那个女孩是谁？ 确定在社交媒体和在线视频上疯传的可爱女大学生</t>
+          <t>PRED-753 *蛰居族独立支援：巨乳OL JULIA 以压倒性的母爱为在垃圾房手淫的淫屌少年</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1381,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MEYD-974</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>EBWH-199 [一名天气女孩认为妹妹男朋友会保持沉默，所以她用美丽的巨乳诱惑他</t>
+          <t>MEYD-974 直到丈夫的学生考完试的那一天……已婚裸模沉迷于SEX行为 椎名心春</t>
         </is>
       </c>
     </row>
@@ -1401,12 +1401,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>ABF-208*FETISHTOKYO</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SONE-626 [中文字幕]「内気でもじもじして押しに弱い」彼女の妹に欲情し、こっそりハメ続けた最低な僕。 三田真鈴</t>
+          <t>ABF-208 *FETISH TOKYO 铃森玲梦 [附 40 分钟有限奖励镜头]:: 演员阵容：铃森玲梦</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MUKC-093*</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SONE-554 人人都羡慕的女朋友，却爱上了别的男人的公鸡 仓木华（倉木華番号作品</t>
+          <t>MUKC-093 *与一个顽皮的女孩独处.带他们进行角色扮演温泉之旅.</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MUKC-091*</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>YMDD-347 もはや伝説的！ 最強カリスマギャル美痴クイーン！ AIKAのプレミアムベスト2</t>
+          <t>MUKC-091 * 下班后我遇到了一位酒吧女招待，我们在酒吧里喝醉了三人行</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MIDA-087*</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VENZ-048 *当她喝醉时，她会变成一个接吻怪物，变得非常色情。一旦她吮吸，她就不会放手</t>
+          <t>MIDA-087 *那个女孩是谁？ 确定在社交媒体和在线视频上疯传的可爱女大学生</t>
         </is>
       </c>
     </row>
@@ -1481,12 +1481,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>EBWH-199</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>START-285-V *两天一夜13次射精的温泉之旅 神木玲 [附赠奖励片段]</t>
+          <t>EBWH-199 [一名天气女孩认为妹妹男朋友会保持沉默，所以她用美丽的巨乳诱惑他</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-626</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>EBWH-202  预约吧！她向这位业余爱好者展示了 AV 女优的惊人技艺，重点是女上位！</t>
+          <t>SONE-626 [中文字幕]「内気でもじもじして押しに弱い」彼女の妹に欲情し、こっそりハメ続けた最低な僕。 三田真鈴</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-554</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>HMN-676 *我无法抗拒一个吵架的女高中生，开始骚扰她……她浑身沾满了蜜穴汁液，比她的男朋友更沉迷于我的技巧</t>
+          <t>SONE-554 人人都羡慕的女朋友，却爱上了别的男人的公鸡 仓木华（倉木華番号作品</t>
         </is>
       </c>
     </row>
@@ -1541,12 +1541,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>YMDD-347</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>EBWH-200 *被调到离岛的巨乳女教师，被迫穿着令学生们兴奋的变态泳衣授课</t>
+          <t>YMDD-347 もはや伝説的！ 最強カリスマギャル美痴クイーン！ AIKAのプレミアムベスト2</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1561,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>VENZ-048*</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HMN-676 *我无法抗拒一个吵架的女高中生，开始骚扰她……她浑身沾满了蜜穴汁液，比她的男朋友更沉迷于我的技巧</t>
+          <t>VENZ-048 *当她喝醉时，她会变成一个接吻怪物，变得非常色情。一旦她吮吸，她就不会放手</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1581,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>START-285-V*</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VENX-315 *一位母亲，因无休止的乳头攻击而变得如此好，无法拒绝她儿子的中出</t>
+          <t>START-285-V *两天一夜13次射精的温泉之旅 神木玲 [附赠奖励片段]</t>
         </is>
       </c>
     </row>
@@ -1601,12 +1601,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>EBWH-202</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>JURA-140 [中文字幕] 初撮り人妻ドキュメント第二章 久保田早苗</t>
+          <t>EBWH-202  预约吧！她向这位业余爱好者展示了 AV 女优的惊人技艺，重点是女上位！</t>
         </is>
       </c>
     </row>
@@ -1621,12 +1621,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>HMN-676*</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>HTHD-227 [中文字幕] 友達の母親～最終章～ 真田まゆみ</t>
+          <t>HMN-676 *我无法抗拒一个吵架的女高中生，开始骚扰她……她浑身沾满了蜜穴汁液，比她的男朋友更沉迷于我的技巧</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1641,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>EBWH-200*</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ABF-186 「私、セックスが本当に好きなんです…。」 case.03 瀧本雫葉[限定特典映像40分付き]</t>
+          <t>EBWH-200 *被调到离岛的巨乳女教师，被迫穿着令学生们兴奋的变态泳衣授课</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1661,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>HMN-676*</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ABF-090 [抽選でサイン入り衣装プレゼント実施中]ねっちょりセックスに溺れる文系女子。粘着性高湿度サイレントセックス 七嶋舞[MGSだけのおまけ映像付き+30分]</t>
+          <t>HMN-676 *我无法抗拒一个吵架的女高中生，开始骚扰她……她浑身沾满了蜜穴汁液，比她的男朋友更沉迷于我的技巧</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>VENX-315*</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SONE-619 学校里最受欢迎的女孩只尿了一次，就成了全班的性奴隶 七森莉莉 (七ツ森りり)番号作品BT磁力链</t>
+          <t>VENX-315 *一位母亲，因无休止的乳头攻击而变得如此好，无法拒绝她儿子的中出</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1701,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>JURA-140</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SONE-592 换上姪女学生服的她很着急，脸上闪着光芒红色。她害羞的样子太可爱了</t>
+          <t>JURA-140 [中文字幕] 初撮り人妻ドキュメント第二章 久保田早苗</t>
         </is>
       </c>
     </row>
@@ -1721,12 +1721,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>HTHD-227</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SAN-245 パチンコのためにレジ金に手を出した女 ちゃんよた</t>
+          <t>HTHD-227 [中文字幕] 友達の母親～最終章～ 真田まゆみ</t>
         </is>
       </c>
     </row>
@@ -1741,12 +1741,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>ABF-186</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>DASS-619 [中文字幕]「お願い！チ○ポ見せて！」新刊のために美白ふわとろ巨乳で僕をフル勃起させてくる隣のエロ同人作家お姉さん。 雪代一鳳</t>
+          <t>ABF-186 「私、セックスが本当に好きなんです…。」 case.03 瀧本雫葉[限定特典映像40分付き]</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1761,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>ABF-090</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>ABF-102 [中文字幕] 一宮希帆 なまなかだし[MGSだけのおまけ映像付き+15分]</t>
+          <t>ABF-090 [抽選でサイン入り衣装プレゼント実施中]ねっちょりセックスに溺れる文系女子。粘着性高湿度サイレントセックス 七嶋舞[MGSだけのおまけ映像付き+30分]</t>
         </is>
       </c>
     </row>
@@ -1781,12 +1781,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-619</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ABF-163 顔面特化 河合あすな[MGSだけのおまけ映像付き+15分]</t>
+          <t>SONE-619 学校里最受欢迎的女孩只尿了一次，就成了全班的性奴隶 七森莉莉 (七ツ森りり)番号作品BT磁力链</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-592</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>MEYD-941 [中文字幕]「男をイカせまくってきたはずなのに…。」性癖逆転媚薬を注入されてチ○ポでイカされまくって廃人になってしまう人妻捜査官・かなえ 夢実かなえ</t>
+          <t>SONE-592 换上姪女学生服的她很着急，脸上闪着光芒红色。她害羞的样子太可爱了</t>
         </is>
       </c>
     </row>
@@ -1821,12 +1821,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SAN-245</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SONE-615 [中文字幕] 最強ヒロインAV初体験3本番 瀬戸環奈</t>
+          <t>SAN-245 パチンコのためにレジ金に手を出した女 ちゃんよた</t>
         </is>
       </c>
     </row>
@@ -1841,12 +1841,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>DASS-619</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>JUR-263 [中文字幕] 滴る愛液、本?能?全?開SEXー。 夫の上司に自分が心底’雌’だと理解らされた着床交尾7日間ー。 宮下華奈</t>
+          <t>DASS-619 [中文字幕]「お願い！チ○ポ見せて！」新刊のために美白ふわとろ巨乳で僕をフル勃起させてくる隣のエロ同人作家お姉さん。 雪代一鳳</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>ABF-102</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SONE-662 [中文字幕] 夢、青春、セックス。新人NO.1STYLE バズりたいアイドルインフルエンサー 桜乃りの AVデビュー</t>
+          <t>ABF-102 [中文字幕] 一宮希帆 なまなかだし[MGSだけのおまけ映像付き+15分]</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1881,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>ABF-163</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>JUR-023 [中文字幕] Madonna超大型専属 ズルい程イイオンナ第3章 1カ月の禁欲明けで発情ムラムラ 濃密リアルお泊り不倫旅行 篠原いよ</t>
+          <t>ABF-163 顔面特化 河合あすな[MGSだけのおまけ映像付き+15分]</t>
         </is>
       </c>
     </row>
@@ -1901,12 +1901,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MEYD-941</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>JUR-212 天然Kカップ乳爆弾 マドンナ移籍 第2弾！！ 夫よりも義父を愛して…。 二羽紗愛 ::</t>
+          <t>MEYD-941 [中文字幕]「男をイカせまくってきたはずなのに…。」性癖逆転媚薬を注入されてチ○ポでイカされまくって廃人になってしまう人妻捜査官・かなえ 夢実かなえ</t>
         </is>
       </c>
     </row>
@@ -1921,12 +1921,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-615</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>MMUS-095 [中文字幕] 小悪魔挑発美少女 杏ここ</t>
+          <t>SONE-615 [中文字幕] 最強ヒロインAV初体験3本番 瀬戸環奈</t>
         </is>
       </c>
     </row>
@@ -1941,12 +1941,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>JUR-263</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SONE-631 [中文字幕] 出張先で大?大?大嫌いなセクハラおじさん上司と相部屋に…朝まで続く絶倫性交でまさかの絶頂、遂には軽蔑中年男のピストンを求めるほどふしだらになったLカップ新入社員 田野憂</t>
+          <t>JUR-263 [中文字幕] 滴る愛液、本?能?全?開SEXー。 夫の上司に自分が心底’雌’だと理解らされた着床交尾7日間ー。 宮下華奈</t>
         </is>
       </c>
     </row>
@@ -1961,12 +1961,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-662</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>EBWH-090 [中文字幕] 見た目で選んだ俺の愛人はエグいほどドスケベ絶倫 ～チ●ポ欲しがり美女たちの奪い合い中出し性交～ 響蓮 設楽ゆうひ</t>
+          <t>SONE-662 [中文字幕] 夢、青春、セックス。新人NO.1STYLE バズりたいアイドルインフルエンサー 桜乃りの AVデビュー</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>JUR-023</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>[4KUHD] SONE-308 美脚下半身が大絶頂するまで[媚薬?巨根]ピストンを欲しがるデカチンキメセク大好き脚長スケベお姉さん 楓ふうあ</t>
+          <t>JUR-023 [中文字幕] Madonna超大型専属 ズルい程イイオンナ第3章 1カ月の禁欲明けで発情ムラムラ 濃密リアルお泊り不倫旅行 篠原いよ</t>
         </is>
       </c>
     </row>
@@ -2001,12 +2001,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>JUR-212</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ADN-538 [中文字幕] 僕の家に転がり込んできたお姉さんとむちゃくちゃセックスした話。 白峰ミウ</t>
+          <t>JUR-212 天然Kカップ乳爆弾 マドンナ移籍 第2弾！！ 夫よりも義父を愛して…。 二羽紗愛 ::</t>
         </is>
       </c>
     </row>
@@ -2021,12 +2021,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>MMUS-095</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ABF-075 [抽選でサイン入り衣装プレゼント実施中]天然成分由来 瀧本雫葉汁 120% 83[MGSだけのおまけ映像付き+15分]</t>
+          <t>MMUS-095 [中文字幕] 小悪魔挑発美少女 杏ここ</t>
         </is>
       </c>
     </row>
@@ -2041,12 +2041,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-631</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SAME-151  [中文字幕] ダメです、お父さんに気づかれちゃう… 神木蘭</t>
+          <t>SONE-631 [中文字幕] 出張先で大?大?大嫌いなセクハラおじさん上司と相部屋に…朝まで続く絶倫性交でまさかの絶頂、遂には軽蔑中年男のピストンを求めるほどふしだらになったLカップ新入社員 田野憂</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2061,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>EBWH-090</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>IPZZ-503 [中文字幕] 夏の終わりの汗だく中出し性交 人妻になったお従姉ちゃんの無防備な色気にボクは理性を抑えられず…。 明里つむぎ</t>
+          <t>EBWH-090 [中文字幕] 見た目で選んだ俺の愛人はエグいほどドスケベ絶倫 ～チ●ポ欲しがり美女たちの奪い合い中出し性交～ 響蓮 設楽ゆうひ</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-308</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>WAWA-033 [中文字幕] 人妻爆乳快楽露出！！スリルと羞恥心で淫らにイキ狂う野外SEX！ 二宮和香</t>
+          <t>[4KUHD] SONE-308 美脚下半身が大絶頂するまで[媚薬?巨根]ピストンを欲しがるデカチンキメセク大好き脚長スケベお姉さん 楓ふうあ</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>ADN-538</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>VEC-688 [中文字幕] 母の親友 名取沙雪</t>
+          <t>ADN-538 [中文字幕] 僕の家に転がり込んできたお姉さんとむちゃくちゃセックスした話。 白峰ミウ</t>
         </is>
       </c>
     </row>
@@ -2121,12 +2121,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>ABF-075</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>DASS-572 [中文字幕] 憑依おじさんin藤森里穂 生意気な巨乳女を乗っ取り代わりに彼氏と情交。</t>
+          <t>ABF-075 [抽選でサイン入り衣装プレゼント実施中]天然成分由来 瀧本雫葉汁 120% 83[MGSだけのおまけ映像付き+15分]</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SAME-151</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>JUR-244 [中文字幕] 台所は家庭内不倫の巣窟。 市来まひろ</t>
+          <t>SAME-151  [中文字幕] ダメです、お父さんに気づかれちゃう… 神木蘭</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2161,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>IPZZ-503</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>IPZZ-512 [中文字幕] 僕の恋人が家で待ってるのに、 終電逃がし後輩女子社員の家に泊まる流れに…ノーパンノーブラ 部屋着に興奮した絶倫のボクは一晩中ヤりまくった。。。 役野満里奈</t>
+          <t>IPZZ-503 [中文字幕] 夏の終わりの汗だく中出し性交 人妻になったお従姉ちゃんの無防備な色気にボクは理性を抑えられず…。 明里つむぎ</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>WAWA-033</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SONE-634 [中文字幕] 出張先で軽蔑している中年セクハラ上司とまさかの相部屋に…朝まで続く絶倫性交に不覚にも感じてしまったIカップ新人社員 篠真有</t>
+          <t>WAWA-033 [中文字幕] 人妻爆乳快楽露出！！スリルと羞恥心で淫らにイキ狂う野外SEX！ 二宮和香</t>
         </is>
       </c>
     </row>
@@ -2201,12 +2201,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>VEC-688</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SONE-617 [中文字幕]「オチンチン、勃っちゃった？おばさんでよければすぐに処理してあげる」働くおばさんが隠しきれない巨乳でボッキさせちゃった男子達をこっそり射精サポート 職業別シチュエーション 奥田咲</t>
+          <t>VEC-688 [中文字幕] 母の親友 名取沙雪</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>DASS-572</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SONE-629 [中文字幕] 際どいVIO施術に勃起しちゃったら…サービス精神で優しくヌイてくれる綺麗でエッチなメンズ脱毛のお姉さん 花アリス</t>
+          <t>DASS-572 [中文字幕] 憑依おじさんin藤森里穂 生意気な巨乳女を乗っ取り代わりに彼氏と情交。</t>
         </is>
       </c>
     </row>
@@ -2241,12 +2241,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>JUR-244</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SONE-562 [中文字幕] エスワン20周年記念 AV業界史に残る最強タッグ作品 顔面偏差値No.1の女子生徒たちがヌキハメ放題で来場者を満足させてくれるエスワン学園射精祭</t>
+          <t>JUR-244 [中文字幕] 台所は家庭内不倫の巣窟。 市来まひろ</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2261,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>IPZZ-512</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SONE-623 [中文字幕] 姉がメンズエステのバイトを始めたんだが、僕の体で際どいマッサージの練習をしてきてヤバい！ 黒島玲衣</t>
+          <t>IPZZ-512 [中文字幕] 僕の恋人が家で待ってるのに、 終電逃がし後輩女子社員の家に泊まる流れに…ノーパンノーブラ 部屋着に興奮した絶倫のボクは一晩中ヤりまくった。。。 役野満里奈</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-634</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>DASS-580 [中文字幕] 無自覚な巨乳誘惑を振り撒く自宅ネイリスト妻がクレーマーの餌食に…理不尽謝罪で羞恥土下座クンニされた倦怠期マ○コは即イキ！舐めアクメ中毒堕ちし繰り返す言いなり濃厚不倫 わか菜ほの</t>
+          <t>SONE-634 [中文字幕] 出張先で軽蔑している中年セクハラ上司とまさかの相部屋に…朝まで続く絶倫性交に不覚にも感じてしまったIカップ新人社員 篠真有</t>
         </is>
       </c>
     </row>
@@ -2301,12 +2301,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-617</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SONE-569 [中文字幕] 快感！ 初?体?験めちゃイキ3本番 「脱いだらすごい」の最高峰大学生 マシュマロ純白Hカップ性感開発スペシャル 南沢海香</t>
+          <t>SONE-617 [中文字幕]「オチンチン、勃っちゃった？おばさんでよければすぐに処理してあげる」働くおばさんが隠しきれない巨乳でボッキさせちゃった男子達をこっそり射精サポート 職業別シチュエーション 奥田咲</t>
         </is>
       </c>
     </row>
@@ -2321,12 +2321,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-629</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>IPZZ-178 [中文字幕] 婚前同窓会NTR 性格最悪セックス最高なクズ元カレの絶倫ピストンに再び堕ちてしまったボクの婚約者 桃乃木かな</t>
+          <t>SONE-629 [中文字幕] 際どいVIO施術に勃起しちゃったら…サービス精神で優しくヌイてくれる綺麗でエッチなメンズ脱毛のお姉さん 花アリス</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-562</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SONE-541 夢乃真实药物服药 870 天后身体变得非常敏感，性欲增强，她弓起后背狂喜不已尽情享受sex 夢乃あいか</t>
+          <t>SONE-562 [中文字幕] エスワン20周年記念 AV業界史に残る最強タッグ作品 顔面偏差値No.1の女子生徒たちがヌキハメ放題で来場者を満足させてくれるエスワン学園射精祭</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-623</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>PPPE-089 [中文字幕] 会社の飲み会で終電を逃した僕に「うちに泊まっていきます？」と巨乳の後輩女子が小悪魔な囁き。部屋着の胸チラ誘惑に負けて何度もSEXした 楪カレン</t>
+          <t>SONE-623 [中文字幕] 姉がメンズエステのバイトを始めたんだが、僕の体で際どいマッサージの練習をしてきてヤバい！ 黒島玲衣</t>
         </is>
       </c>
     </row>
@@ -2381,12 +2381,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>DASS-580</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SONE-618 [中文字幕] 超濃厚SEX契約 成績不振の生保レディは異常精力オヤジが住むボロ屋敷に出向き媚薬で絶倫にさせられケダモノ交尾 miru</t>
+          <t>DASS-580 [中文字幕] 無自覚な巨乳誘惑を振り撒く自宅ネイリスト妻がクレーマーの餌食に…理不尽謝罪で羞恥土下座クンニされた倦怠期マ○コは即イキ！舐めアクメ中毒堕ちし繰り返す言いなり濃厚不倫 わか菜ほの</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2401,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-569</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>BLK-621 絶倫の僕でも音を上げるW性欲モンスターギャルと巣ごもりハーレム生活 森日向子 朝日奈かれん</t>
+          <t>SONE-569 [中文字幕] 快感！ 初?体?験めちゃイキ3本番 「脱いだらすごい」の最高峰大学生 マシュマロ純白Hカップ性感開発スペシャル 南沢海香</t>
         </is>
       </c>
     </row>
@@ -2421,12 +2421,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>IPZZ-178</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>PPPE-311  [中文字幕] 隣家の育乳中ノーブラ人妻のおっぱいタッチ誘惑に理性ぶっ飛び果てるまで生ハメサポート不倫 森日向子</t>
+          <t>IPZZ-178 [中文字幕] 婚前同窓会NTR 性格最悪セックス最高なクズ元カレの絶倫ピストンに再び堕ちてしまったボクの婚約者 桃乃木かな</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SONE-888</t>
+          <t>SONE-541</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>PRED-457 [中文字幕] 綺麗なお姉さんがアナタの五感を刺激するしっとり囁き愛情オナニーサポート 楪カレン</t>
+          <t>SONE-541 夢乃真实药物服药 870 天后身体变得非常敏感，性欲增强，她弓起后背狂喜不已尽情享受sex 夢乃あいか</t>
         </is>
       </c>
     </row>
